--- a/WC/Day 2 Lab Challenge/Build List 1.2.xlsx
+++ b/WC/Day 2 Lab Challenge/Build List 1.2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>Your demo environment build list</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Default Outbound rules allow Internet ANY/ANY.  Return packets to Internet sources do not need matching rules.</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -127,6 +124,15 @@
     <t>VirtualNetwork</t>
   </si>
   <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>tcp/3389</t>
+  </si>
+  <si>
+    <t>10.0.255.4/31</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -217,6 +223,15 @@
     <t>IIS Management Console</t>
   </si>
   <si>
+    <t>tcp/8080</t>
+  </si>
+  <si>
+    <t>10.0.255.7/32</t>
+  </si>
+  <si>
+    <t>10.0.1.5/32</t>
+  </si>
+  <si>
     <t>Deny-VNET-Inbound</t>
   </si>
   <si>
@@ -232,22 +247,28 @@
     <t>Lock down outbound</t>
   </si>
   <si>
-    <t>The traffic inside the DMZ subnet needs double rules due to the DENY rule on 4096.  Each VM(s) needs its own inbound and outbound RDP rules.</t>
-  </si>
-  <si>
-    <t>10.0.255.7 will send RDP request to 10.0.255.4.  This is an OUTBOUND rule from 10.0.255.7 to 10.0.255.4 [out 3000]</t>
-  </si>
-  <si>
-    <t>10.0.255.4 will accept the INBOUND RDP from 10.0.255.7 to 10.0.255.4 [in 3010]</t>
-  </si>
-  <si>
-    <t>10.0.255.4 will send the return RDP packet OUTBOUND from 10.0.255.4 to 10.0.255.7 [out 3010]</t>
-  </si>
-  <si>
-    <t>10.0.255.7 will accept the return RDP packet as INBOUND from 10.0.255.4 to 10.0.255.7 [in 3000]</t>
-  </si>
-  <si>
-    <t>This complexity is in place as the 4096 rule completely locked down traffic in DMZ.  Rule means you need to allow the 4 steps of a tcp action.</t>
+    <t>Allow-Internet-to-MGMT01</t>
+  </si>
+  <si>
+    <t>Allow RDP to the MGMT01 server</t>
+  </si>
+  <si>
+    <t>Allow-MGMT01-to-WEBServers</t>
+  </si>
+  <si>
+    <t>Allow-RDP-from-MGMT01-to-WEBServers</t>
+  </si>
+  <si>
+    <t>Allow-MGMT01-to-LANSubnet</t>
+  </si>
+  <si>
+    <t>Allow-INTERNET-to-WEB</t>
+  </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>Allow-WEBServers-to-APP01</t>
   </si>
 </sst>
 </file>
@@ -442,8 +463,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table16" displayName="Table16" ref="B8:H16" totalsRowShown="0">
-  <autoFilter ref="B8:H16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table38" displayName="Table38" ref="B17:H21" totalsRowShown="0">
+  <autoFilter ref="B17:H21" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Source"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Destination"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Service"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Action"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table16" displayName="Table16" ref="B8:H12" totalsRowShown="0">
+  <autoFilter ref="B8:H12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Priority"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name"/>
@@ -452,22 +489,6 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Service"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Action"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table38" displayName="Table38" ref="B21:H26" totalsRowShown="0">
-  <autoFilter ref="B21:H26" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Priority"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Source"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Destination"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Service"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Action"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -773,7 +794,7 @@
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="197" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -914,16 +935,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="167" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:H25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="161" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.73046875" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="34.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.86328125" customWidth="1"/>
     <col min="5" max="5" width="16.06640625" customWidth="1"/>
     <col min="6" max="6" width="13.1328125" customWidth="1"/>
@@ -933,10 +954,10 @@
   <sheetData>
     <row r="2" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -964,7 +985,7 @@
     <row r="6" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:8" ht="25.5" x14ac:dyDescent="0.75">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -975,156 +996,244 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>3500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16">
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>4000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
         <v>4096</v>
       </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>2500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>3400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>3500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>39</v>
+      <c r="B21">
+        <v>4096</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26">
-        <v>4096</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
@@ -1147,97 +1256,97 @@
   <sheetData>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
